--- a/data/pca/factorExposure/factorExposure_2014-12-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01288771886563058</v>
+        <v>0.01202296453607696</v>
       </c>
       <c r="C2">
-        <v>0.03679009227091183</v>
+        <v>-0.05464664317480838</v>
       </c>
       <c r="D2">
-        <v>-0.1359358343805986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06247810557124051</v>
+      </c>
+      <c r="E2">
+        <v>0.1019794259824171</v>
+      </c>
+      <c r="F2">
+        <v>-0.1459801652736025</v>
+      </c>
+      <c r="G2">
+        <v>0.05209597123447259</v>
+      </c>
+      <c r="H2">
+        <v>0.04903749877571343</v>
+      </c>
+      <c r="I2">
+        <v>-0.05408350738177995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.0446381212647133</v>
+        <v>0.02238603947190837</v>
       </c>
       <c r="C4">
-        <v>0.1230421905669325</v>
+        <v>-0.1456943175406385</v>
       </c>
       <c r="D4">
-        <v>-0.098517731492057</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02285292431819959</v>
+      </c>
+      <c r="E4">
+        <v>0.07971584945151117</v>
+      </c>
+      <c r="F4">
+        <v>-0.1032973751010174</v>
+      </c>
+      <c r="G4">
+        <v>-0.0597380373195712</v>
+      </c>
+      <c r="H4">
+        <v>-0.02294754273130968</v>
+      </c>
+      <c r="I4">
+        <v>-0.0777571730474535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02089134238491717</v>
+        <v>0.03104159325477698</v>
       </c>
       <c r="C6">
-        <v>0.04774014258598055</v>
+        <v>-0.05957777838094512</v>
       </c>
       <c r="D6">
-        <v>-0.08363612554077943</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.03587086869857135</v>
+      </c>
+      <c r="E6">
+        <v>0.08957969428729728</v>
+      </c>
+      <c r="F6">
+        <v>-0.05163209190405814</v>
+      </c>
+      <c r="G6">
+        <v>0.04125459717723053</v>
+      </c>
+      <c r="H6">
+        <v>-0.04525711125222574</v>
+      </c>
+      <c r="I6">
+        <v>-0.02015447329902497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.008464101523829174</v>
+        <v>0.007139086527181332</v>
       </c>
       <c r="C7">
-        <v>0.03665668464061397</v>
+        <v>-0.05423050853942751</v>
       </c>
       <c r="D7">
-        <v>-0.06691851032018846</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03563725218420686</v>
+      </c>
+      <c r="E7">
+        <v>0.07142208191523711</v>
+      </c>
+      <c r="F7">
+        <v>-0.003850486921510176</v>
+      </c>
+      <c r="G7">
+        <v>-0.02113785954071411</v>
+      </c>
+      <c r="H7">
+        <v>-0.05271725144671498</v>
+      </c>
+      <c r="I7">
+        <v>-0.08131273585521488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.004846279637858366</v>
+        <v>-0.006557016620867057</v>
       </c>
       <c r="C8">
-        <v>0.05274387111861693</v>
+        <v>-0.06110104246054205</v>
       </c>
       <c r="D8">
-        <v>-0.08237004748160927</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.01261454694308732</v>
+      </c>
+      <c r="E8">
+        <v>0.0681860198869338</v>
+      </c>
+      <c r="F8">
+        <v>-0.08065597900591183</v>
+      </c>
+      <c r="G8">
+        <v>-0.03006833355082317</v>
+      </c>
+      <c r="H8">
+        <v>0.04738603309596064</v>
+      </c>
+      <c r="I8">
+        <v>-0.03157513904180744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.02689312258927948</v>
+        <v>0.01332541629167477</v>
       </c>
       <c r="C9">
-        <v>0.1000709822870321</v>
+        <v>-0.1153249331562634</v>
       </c>
       <c r="D9">
-        <v>-0.08485458435595693</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.02273953699913281</v>
+      </c>
+      <c r="E9">
+        <v>0.06579115311015522</v>
+      </c>
+      <c r="F9">
+        <v>-0.06451029238209018</v>
+      </c>
+      <c r="G9">
+        <v>-0.009206678800228612</v>
+      </c>
+      <c r="H9">
+        <v>-0.04181075839216505</v>
+      </c>
+      <c r="I9">
+        <v>-0.08349716494196913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.2241034301551826</v>
+        <v>0.2415835648195295</v>
       </c>
       <c r="C10">
-        <v>-0.1101055716319418</v>
+        <v>0.08588936158001369</v>
       </c>
       <c r="D10">
-        <v>0.04551408231171043</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01692554467652044</v>
+      </c>
+      <c r="E10">
+        <v>-0.02491360907601557</v>
+      </c>
+      <c r="F10">
+        <v>-0.01760152802334678</v>
+      </c>
+      <c r="G10">
+        <v>-0.007126814927326587</v>
+      </c>
+      <c r="H10">
+        <v>-0.03269423995447235</v>
+      </c>
+      <c r="I10">
+        <v>-0.02091097438825198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.01058943000417132</v>
+        <v>0.01291386876071131</v>
       </c>
       <c r="C11">
-        <v>0.04315063041321341</v>
+        <v>-0.06729517991758326</v>
       </c>
       <c r="D11">
-        <v>-0.04747582126189685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.01265447724648</v>
+      </c>
+      <c r="E11">
+        <v>0.0541587067589208</v>
+      </c>
+      <c r="F11">
+        <v>-0.001689093473237235</v>
+      </c>
+      <c r="G11">
+        <v>-0.01393220632271912</v>
+      </c>
+      <c r="H11">
+        <v>-0.03181366275517885</v>
+      </c>
+      <c r="I11">
+        <v>-0.03895851188376509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01543216455961561</v>
+        <v>0.01488345800195542</v>
       </c>
       <c r="C12">
-        <v>0.04576940184147914</v>
+        <v>-0.05659395948229134</v>
       </c>
       <c r="D12">
-        <v>-0.04898918816888979</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.01779648442289561</v>
+      </c>
+      <c r="E12">
+        <v>0.04133934706699867</v>
+      </c>
+      <c r="F12">
+        <v>0.00869315226225062</v>
+      </c>
+      <c r="G12">
+        <v>0.0145329365788082</v>
+      </c>
+      <c r="H12">
+        <v>-0.0282470790656178</v>
+      </c>
+      <c r="I12">
+        <v>-0.04343845011728303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.01319842521682647</v>
+        <v>0.005658998074706195</v>
       </c>
       <c r="C13">
-        <v>0.05417889686975119</v>
+        <v>-0.09027683176339397</v>
       </c>
       <c r="D13">
-        <v>-0.1272974689377734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.07973949040122895</v>
+      </c>
+      <c r="E13">
+        <v>0.1215753070208777</v>
+      </c>
+      <c r="F13">
+        <v>-0.05381036455595949</v>
+      </c>
+      <c r="G13">
+        <v>0.09634347881153317</v>
+      </c>
+      <c r="H13">
+        <v>-0.06480359821898629</v>
+      </c>
+      <c r="I13">
+        <v>-0.08667945369641494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.003975654387654644</v>
+        <v>0.007271163479465992</v>
       </c>
       <c r="C14">
-        <v>0.0207544470255039</v>
+        <v>-0.04873861278183636</v>
       </c>
       <c r="D14">
-        <v>-0.05822438670552333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01878736872426815</v>
+      </c>
+      <c r="E14">
+        <v>0.1028904273358583</v>
+      </c>
+      <c r="F14">
+        <v>-0.01576019081325918</v>
+      </c>
+      <c r="G14">
+        <v>0.03284266407970672</v>
+      </c>
+      <c r="H14">
+        <v>-0.07898149187034828</v>
+      </c>
+      <c r="I14">
+        <v>-0.143725441238259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.002422038098484172</v>
+        <v>-0.003480917036920983</v>
       </c>
       <c r="C15">
-        <v>0.02826201448211874</v>
+        <v>-0.04955388062895397</v>
       </c>
       <c r="D15">
-        <v>-0.07957983170272993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03182798513722021</v>
+      </c>
+      <c r="E15">
+        <v>0.07684470860549551</v>
+      </c>
+      <c r="F15">
+        <v>-0.01335903789100158</v>
+      </c>
+      <c r="G15">
+        <v>-0.01008988255918417</v>
+      </c>
+      <c r="H15">
+        <v>-0.01322677595573355</v>
+      </c>
+      <c r="I15">
+        <v>-0.05910072806145918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.009007174566930473</v>
+        <v>0.01115210851963055</v>
       </c>
       <c r="C16">
-        <v>0.03971208214299807</v>
+        <v>-0.05710610914014175</v>
       </c>
       <c r="D16">
-        <v>-0.03875928803809851</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.01572774148486176</v>
+      </c>
+      <c r="E16">
+        <v>0.03990218967825671</v>
+      </c>
+      <c r="F16">
+        <v>0.002756570160919638</v>
+      </c>
+      <c r="G16">
+        <v>0.001408310340861382</v>
+      </c>
+      <c r="H16">
+        <v>-0.03667484787516609</v>
+      </c>
+      <c r="I16">
+        <v>-0.03583749827619651</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.004043933459752064</v>
+        <v>0.001678002490494671</v>
       </c>
       <c r="C19">
-        <v>0.008220307831326046</v>
+        <v>-0.007063152351590972</v>
       </c>
       <c r="D19">
-        <v>-0.02697926094176724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.007339937328356802</v>
+      </c>
+      <c r="E19">
+        <v>0.01198434815613419</v>
+      </c>
+      <c r="F19">
+        <v>0.005704226901166144</v>
+      </c>
+      <c r="G19">
+        <v>0.001850499611168676</v>
+      </c>
+      <c r="H19">
+        <v>0.009324769812568733</v>
+      </c>
+      <c r="I19">
+        <v>-0.01775498363187113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.001873415619488056</v>
+        <v>0.003502871634521795</v>
       </c>
       <c r="C20">
-        <v>0.0403223618858537</v>
+        <v>-0.06446317205378413</v>
       </c>
       <c r="D20">
-        <v>-0.06482114161000367</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03402303907874262</v>
+      </c>
+      <c r="E20">
+        <v>0.06738112608567053</v>
+      </c>
+      <c r="F20">
+        <v>-0.00573591137109967</v>
+      </c>
+      <c r="G20">
+        <v>-0.0182220968230284</v>
+      </c>
+      <c r="H20">
+        <v>-0.07069967874859734</v>
+      </c>
+      <c r="I20">
+        <v>-0.06028552724031033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.002596042906374741</v>
+        <v>0.005010570820359038</v>
       </c>
       <c r="C21">
-        <v>0.05082618578164477</v>
+        <v>-0.06265373863835517</v>
       </c>
       <c r="D21">
-        <v>-0.09033693057767832</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.038020384256858</v>
+      </c>
+      <c r="E21">
+        <v>0.08363276847532856</v>
+      </c>
+      <c r="F21">
+        <v>-0.07490866384816414</v>
+      </c>
+      <c r="G21">
+        <v>0.08977177225195113</v>
+      </c>
+      <c r="H21">
+        <v>-0.05158783239255844</v>
+      </c>
+      <c r="I21">
+        <v>-0.1635544092910011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.0005311982474301624</v>
+        <v>-0.0107334679469928</v>
       </c>
       <c r="C22">
-        <v>0.06095305740930539</v>
+        <v>-0.103287766281273</v>
       </c>
       <c r="D22">
-        <v>-0.2065057750745521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1447557024506464</v>
+      </c>
+      <c r="E22">
+        <v>0.1902009473148964</v>
+      </c>
+      <c r="F22">
+        <v>-0.298666108052372</v>
+      </c>
+      <c r="G22">
+        <v>-0.1245995447305479</v>
+      </c>
+      <c r="H22">
+        <v>0.2600398457215274</v>
+      </c>
+      <c r="I22">
+        <v>0.403343053436653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0006287112325734392</v>
+        <v>-0.007404509534563715</v>
       </c>
       <c r="C23">
-        <v>0.06233511166429204</v>
+        <v>-0.1063395615920006</v>
       </c>
       <c r="D23">
-        <v>-0.2061731026684341</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1472228952752495</v>
+      </c>
+      <c r="E23">
+        <v>0.1874631918497152</v>
+      </c>
+      <c r="F23">
+        <v>-0.2933164602403066</v>
+      </c>
+      <c r="G23">
+        <v>-0.1183523644769789</v>
+      </c>
+      <c r="H23">
+        <v>0.2480115812923596</v>
+      </c>
+      <c r="I23">
+        <v>0.3771990223085289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.01162936010277623</v>
+        <v>0.0138732678328863</v>
       </c>
       <c r="C24">
-        <v>0.06283556310980379</v>
+        <v>-0.07327334799198602</v>
       </c>
       <c r="D24">
-        <v>-0.05364218796264092</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.009245723352908171</v>
+      </c>
+      <c r="E24">
+        <v>0.05304789476798919</v>
+      </c>
+      <c r="F24">
+        <v>0.003445636264517274</v>
+      </c>
+      <c r="G24">
+        <v>-0.006531487516684744</v>
+      </c>
+      <c r="H24">
+        <v>-0.0311411655391692</v>
+      </c>
+      <c r="I24">
+        <v>-0.05815268527936892</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.01696155098433771</v>
+        <v>0.01864591488880386</v>
       </c>
       <c r="C25">
-        <v>0.05472846801882024</v>
+        <v>-0.06752472519057351</v>
       </c>
       <c r="D25">
-        <v>-0.0435778552745768</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01172873515126443</v>
+      </c>
+      <c r="E25">
+        <v>0.04010816888919397</v>
+      </c>
+      <c r="F25">
+        <v>-0.001279473044240984</v>
+      </c>
+      <c r="G25">
+        <v>-0.01011785115134202</v>
+      </c>
+      <c r="H25">
+        <v>-0.03344768975545341</v>
+      </c>
+      <c r="I25">
+        <v>-0.03476862070129857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.005917084406427198</v>
+        <v>0.01744824781614389</v>
       </c>
       <c r="C26">
-        <v>0.03053460688358068</v>
+        <v>-0.04991657453469175</v>
       </c>
       <c r="D26">
-        <v>-0.05447034972736166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.006703146086698058</v>
+      </c>
+      <c r="E26">
+        <v>0.08288342070713722</v>
+      </c>
+      <c r="F26">
+        <v>-0.03031810679538021</v>
+      </c>
+      <c r="G26">
+        <v>0.003698138246511028</v>
+      </c>
+      <c r="H26">
+        <v>-0.04249628390674542</v>
+      </c>
+      <c r="I26">
+        <v>-0.1264174323089803</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2998146806916288</v>
+        <v>0.3093357637133721</v>
       </c>
       <c r="C28">
-        <v>-0.1375244675374619</v>
+        <v>0.1087311908878026</v>
       </c>
       <c r="D28">
-        <v>0.04780363772431916</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.007770176090136372</v>
+      </c>
+      <c r="E28">
+        <v>-0.04326574179491089</v>
+      </c>
+      <c r="F28">
+        <v>-0.07378624587177977</v>
+      </c>
+      <c r="G28">
+        <v>-0.03853466004524315</v>
+      </c>
+      <c r="H28">
+        <v>0.0125663641125674</v>
+      </c>
+      <c r="I28">
+        <v>-0.05803983220041394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.002918059430303624</v>
+        <v>0.005507320621918993</v>
       </c>
       <c r="C29">
-        <v>0.02756680277728698</v>
+        <v>-0.05646515474711201</v>
       </c>
       <c r="D29">
-        <v>-0.06841690045309072</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02945553194417041</v>
+      </c>
+      <c r="E29">
+        <v>0.1110763552630147</v>
+      </c>
+      <c r="F29">
+        <v>-0.0204386678803698</v>
+      </c>
+      <c r="G29">
+        <v>0.04752009806991625</v>
+      </c>
+      <c r="H29">
+        <v>-0.1146622127566205</v>
+      </c>
+      <c r="I29">
+        <v>-0.1774791870985159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02669028083314655</v>
+        <v>0.02146999679563469</v>
       </c>
       <c r="C30">
-        <v>0.09790451278020175</v>
+        <v>-0.1221448738349798</v>
       </c>
       <c r="D30">
-        <v>-0.1409280237049461</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.04305469965838733</v>
+      </c>
+      <c r="E30">
+        <v>0.1208296790529424</v>
+      </c>
+      <c r="F30">
+        <v>-0.05003342299397046</v>
+      </c>
+      <c r="G30">
+        <v>-0.02115387437212352</v>
+      </c>
+      <c r="H30">
+        <v>-0.00378248540517814</v>
+      </c>
+      <c r="I30">
+        <v>-0.02690443230078042</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.01324988842139628</v>
+        <v>0.01114020653542998</v>
       </c>
       <c r="C31">
-        <v>0.08764097235821959</v>
+        <v>-0.09697814779346085</v>
       </c>
       <c r="D31">
-        <v>-0.03062488651947108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.005185237659371683</v>
+      </c>
+      <c r="E31">
+        <v>0.02760433134094122</v>
+      </c>
+      <c r="F31">
+        <v>-0.003579129612077001</v>
+      </c>
+      <c r="G31">
+        <v>0.001296624588789417</v>
+      </c>
+      <c r="H31">
+        <v>0.01828322550145801</v>
+      </c>
+      <c r="I31">
+        <v>-0.06151198998873521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01819334000150649</v>
+        <v>0.01787872555916021</v>
       </c>
       <c r="C32">
-        <v>0.05388036260119131</v>
+        <v>-0.06173018414346076</v>
       </c>
       <c r="D32">
-        <v>-0.1014272816049663</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03138813215331299</v>
+      </c>
+      <c r="E32">
+        <v>0.06679748906831494</v>
+      </c>
+      <c r="F32">
+        <v>-0.1168461646585531</v>
+      </c>
+      <c r="G32">
+        <v>0.03703557284313157</v>
+      </c>
+      <c r="H32">
+        <v>-0.030658068734341</v>
+      </c>
+      <c r="I32">
+        <v>-0.07785546533715623</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.005494947619937453</v>
+        <v>0.009555738757613013</v>
       </c>
       <c r="C33">
-        <v>0.06307972484342474</v>
+        <v>-0.09135764876245518</v>
       </c>
       <c r="D33">
-        <v>-0.08450578680779013</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.03747038125647418</v>
+      </c>
+      <c r="E33">
+        <v>0.08544389130549764</v>
+      </c>
+      <c r="F33">
+        <v>-0.01126971707905787</v>
+      </c>
+      <c r="G33">
+        <v>0.0006315220534700553</v>
+      </c>
+      <c r="H33">
+        <v>-0.03417058968115079</v>
+      </c>
+      <c r="I33">
+        <v>-0.05855215578847783</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.008335512596103807</v>
+        <v>0.01288356407774931</v>
       </c>
       <c r="C34">
-        <v>0.05249288288855194</v>
+        <v>-0.05641642178805489</v>
       </c>
       <c r="D34">
-        <v>-0.05575633998434777</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.008845191369775525</v>
+      </c>
+      <c r="E34">
+        <v>0.04271097415883993</v>
+      </c>
+      <c r="F34">
+        <v>0.02333182792371331</v>
+      </c>
+      <c r="G34">
+        <v>0.006646574957318657</v>
+      </c>
+      <c r="H34">
+        <v>-0.01159945403893578</v>
+      </c>
+      <c r="I34">
+        <v>-0.02119481104509522</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.001024450814911418</v>
+        <v>0.006005583915417501</v>
       </c>
       <c r="C35">
-        <v>0.002637208061679195</v>
+        <v>-0.0249383481546584</v>
       </c>
       <c r="D35">
-        <v>-0.00919616643468148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01250070774928955</v>
+      </c>
+      <c r="E35">
+        <v>0.03992441133269629</v>
+      </c>
+      <c r="F35">
+        <v>-0.01564445196447072</v>
+      </c>
+      <c r="G35">
+        <v>0.009469834566314983</v>
+      </c>
+      <c r="H35">
+        <v>-0.06513368456305124</v>
+      </c>
+      <c r="I35">
+        <v>-0.09984652520645317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.005772887460412439</v>
+        <v>0.01018750247262916</v>
       </c>
       <c r="C36">
-        <v>0.03019217381097963</v>
+        <v>-0.04221844252255069</v>
       </c>
       <c r="D36">
-        <v>-0.04335609797648114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.002040546163924254</v>
+      </c>
+      <c r="E36">
+        <v>0.06582983567541346</v>
+      </c>
+      <c r="F36">
+        <v>-0.0314300560444551</v>
+      </c>
+      <c r="G36">
+        <v>0.002151459649528197</v>
+      </c>
+      <c r="H36">
+        <v>-0.0355123682352405</v>
+      </c>
+      <c r="I36">
+        <v>-0.07047257053342552</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.006305820680262393</v>
+        <v>0.006507797457924082</v>
       </c>
       <c r="C38">
-        <v>0.01557454207164636</v>
+        <v>-0.04371342278417976</v>
       </c>
       <c r="D38">
-        <v>-0.06313515523247493</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02763410050960148</v>
+      </c>
+      <c r="E38">
+        <v>0.07792216444698341</v>
+      </c>
+      <c r="F38">
+        <v>-0.01199201635211724</v>
+      </c>
+      <c r="G38">
+        <v>-0.04844651510765338</v>
+      </c>
+      <c r="H38">
+        <v>0.0009554952217696982</v>
+      </c>
+      <c r="I38">
+        <v>-0.07098087817170046</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01460061026084974</v>
+        <v>0.01197061696242357</v>
       </c>
       <c r="C39">
-        <v>0.07657220585530834</v>
+        <v>-0.106245316620525</v>
       </c>
       <c r="D39">
-        <v>-0.1105887106036321</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0233494209705444</v>
+      </c>
+      <c r="E39">
+        <v>0.09751953830090715</v>
+      </c>
+      <c r="F39">
+        <v>0.00913084418149245</v>
+      </c>
+      <c r="G39">
+        <v>0.008878479945146159</v>
+      </c>
+      <c r="H39">
+        <v>-0.03516194005830477</v>
+      </c>
+      <c r="I39">
+        <v>-0.05342760708155882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.005037125616716021</v>
+        <v>0.01151284994986182</v>
       </c>
       <c r="C40">
-        <v>0.01560683425880168</v>
+        <v>-0.04696721471109522</v>
       </c>
       <c r="D40">
-        <v>-0.09068615648577198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.05427816043829629</v>
+      </c>
+      <c r="E40">
+        <v>0.1222565072121052</v>
+      </c>
+      <c r="F40">
+        <v>0.003597494882382216</v>
+      </c>
+      <c r="G40">
+        <v>0.02251617698265811</v>
+      </c>
+      <c r="H40">
+        <v>-0.04594768572927731</v>
+      </c>
+      <c r="I40">
+        <v>-0.004014470190833767</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.00831621004814443</v>
+        <v>0.01755561636205288</v>
       </c>
       <c r="C41">
-        <v>0.02437244307221633</v>
+        <v>-0.04423749509269388</v>
       </c>
       <c r="D41">
-        <v>-0.01807282475208864</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01030500981551378</v>
+      </c>
+      <c r="E41">
+        <v>0.02039805888829666</v>
+      </c>
+      <c r="F41">
+        <v>0.01496654181628997</v>
+      </c>
+      <c r="G41">
+        <v>-0.006070017119857421</v>
+      </c>
+      <c r="H41">
+        <v>-0.005556597524420052</v>
+      </c>
+      <c r="I41">
+        <v>-0.0395169010720351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.003485594104763262</v>
+        <v>0.008972642353988241</v>
       </c>
       <c r="C43">
-        <v>0.01970676439080889</v>
+        <v>-0.03682262018178546</v>
       </c>
       <c r="D43">
-        <v>-0.03504626627670619</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.007281189363923531</v>
+      </c>
+      <c r="E43">
+        <v>0.04436485473775581</v>
+      </c>
+      <c r="F43">
+        <v>0.005901977574105123</v>
+      </c>
+      <c r="G43">
+        <v>-0.01430896387510522</v>
+      </c>
+      <c r="H43">
+        <v>-0.02006460775419373</v>
+      </c>
+      <c r="I43">
+        <v>-0.05209639853205714</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01953736194415477</v>
+        <v>0.007743303393159435</v>
       </c>
       <c r="C44">
-        <v>0.05479241102553818</v>
+        <v>-0.07612583541836607</v>
       </c>
       <c r="D44">
-        <v>-0.08414939784596027</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.02006393875763957</v>
+      </c>
+      <c r="E44">
+        <v>0.1008991442365646</v>
+      </c>
+      <c r="F44">
+        <v>-0.04006307046752774</v>
+      </c>
+      <c r="G44">
+        <v>-0.009837916519316356</v>
+      </c>
+      <c r="H44">
+        <v>0.00322958174508707</v>
+      </c>
+      <c r="I44">
+        <v>-0.03748960462290065</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.001251636831551805</v>
+        <v>0.0001966078472401307</v>
       </c>
       <c r="C46">
-        <v>0.03555735829157524</v>
+        <v>-0.05187676835058995</v>
       </c>
       <c r="D46">
-        <v>-0.068584593801038</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01444258935579857</v>
+      </c>
+      <c r="E46">
+        <v>0.0840357595930514</v>
+      </c>
+      <c r="F46">
+        <v>-0.01358484152824545</v>
+      </c>
+      <c r="G46">
+        <v>0.004015464258336015</v>
+      </c>
+      <c r="H46">
+        <v>-0.07049698498703205</v>
+      </c>
+      <c r="I46">
+        <v>-0.1116073553267206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.04074639553691288</v>
+        <v>0.02855472228237578</v>
       </c>
       <c r="C47">
-        <v>0.1138426314782819</v>
+        <v>-0.1115815216602914</v>
       </c>
       <c r="D47">
-        <v>-0.03438174260062883</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01125611940933046</v>
+      </c>
+      <c r="E47">
+        <v>0.0137954644555061</v>
+      </c>
+      <c r="F47">
+        <v>0.001527065992771618</v>
+      </c>
+      <c r="G47">
+        <v>-0.01210952374057111</v>
+      </c>
+      <c r="H47">
+        <v>-0.006207995502061742</v>
+      </c>
+      <c r="I47">
+        <v>-0.08441454235203355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01070732863550753</v>
+        <v>0.01543808623089347</v>
       </c>
       <c r="C48">
-        <v>0.03531223823666754</v>
+        <v>-0.04925658528548011</v>
       </c>
       <c r="D48">
-        <v>-0.04341317594143752</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.008353550430505733</v>
+      </c>
+      <c r="E48">
+        <v>0.07389128987878743</v>
+      </c>
+      <c r="F48">
+        <v>-0.03997763565672151</v>
+      </c>
+      <c r="G48">
+        <v>-0.002918500530028091</v>
+      </c>
+      <c r="H48">
+        <v>-0.04622176368402529</v>
+      </c>
+      <c r="I48">
+        <v>-0.1234268771927314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.003945457377207466</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.007088782934830244</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007429693076048989</v>
+      </c>
+      <c r="E49">
+        <v>0.007127365207313888</v>
+      </c>
+      <c r="F49">
+        <v>0.01331990021058815</v>
+      </c>
+      <c r="G49">
+        <v>0.007752995371832547</v>
+      </c>
+      <c r="H49">
+        <v>-0.01524479511885892</v>
+      </c>
+      <c r="I49">
+        <v>0.008017509633675304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.01284142915127825</v>
+        <v>0.01224267718173286</v>
       </c>
       <c r="C50">
-        <v>0.05189475565382076</v>
+        <v>-0.0705165095541354</v>
       </c>
       <c r="D50">
-        <v>-0.04254557289010244</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01467171150930773</v>
+      </c>
+      <c r="E50">
+        <v>0.03426475936246207</v>
+      </c>
+      <c r="F50">
+        <v>-0.01300870567563137</v>
+      </c>
+      <c r="G50">
+        <v>-0.01082761826617706</v>
+      </c>
+      <c r="H50">
+        <v>-0.0006229725868300046</v>
+      </c>
+      <c r="I50">
+        <v>-0.05681329801391075</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.001303065119935395</v>
+        <v>-0.005404597264985609</v>
       </c>
       <c r="C51">
-        <v>0.01772131099898968</v>
+        <v>-0.02797049830749562</v>
       </c>
       <c r="D51">
-        <v>-0.06679575740079405</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01698433949840914</v>
+      </c>
+      <c r="E51">
+        <v>0.05779612549890395</v>
+      </c>
+      <c r="F51">
+        <v>-0.04646454800097776</v>
+      </c>
+      <c r="G51">
+        <v>0.0095465641660652</v>
+      </c>
+      <c r="H51">
+        <v>-0.02442561782686836</v>
+      </c>
+      <c r="I51">
+        <v>-0.1056976118373732</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.0891709349379067</v>
+        <v>0.06550507630682481</v>
       </c>
       <c r="C53">
-        <v>0.1584701737897173</v>
+        <v>-0.163607441046955</v>
       </c>
       <c r="D53">
-        <v>0.002439104091518688</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04888396540789699</v>
+      </c>
+      <c r="E53">
+        <v>-0.04550972168583822</v>
+      </c>
+      <c r="F53">
+        <v>0.02821680072992175</v>
+      </c>
+      <c r="G53">
+        <v>-0.01241683872378331</v>
+      </c>
+      <c r="H53">
+        <v>0.04490412806712069</v>
+      </c>
+      <c r="I53">
+        <v>-0.02510482674884392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.006190200806551721</v>
+        <v>0.01345349869760333</v>
       </c>
       <c r="C54">
-        <v>0.0241859071587733</v>
+        <v>-0.04835344810345063</v>
       </c>
       <c r="D54">
-        <v>-0.07724915718276851</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.04428681283780792</v>
+      </c>
+      <c r="E54">
+        <v>0.05760287072256984</v>
+      </c>
+      <c r="F54">
+        <v>-0.01216313244642586</v>
+      </c>
+      <c r="G54">
+        <v>-0.008849824925151743</v>
+      </c>
+      <c r="H54">
+        <v>-0.02256903542778351</v>
+      </c>
+      <c r="I54">
+        <v>-0.09241715002957242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.06089755126817201</v>
+        <v>0.04002406559512672</v>
       </c>
       <c r="C55">
-        <v>0.1128571987498385</v>
+        <v>-0.1138975405227142</v>
       </c>
       <c r="D55">
-        <v>0.001942083378069541</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05039678884704372</v>
+      </c>
+      <c r="E55">
+        <v>-0.02437469433218829</v>
+      </c>
+      <c r="F55">
+        <v>0.03413413140612473</v>
+      </c>
+      <c r="G55">
+        <v>-0.0008574111132876127</v>
+      </c>
+      <c r="H55">
+        <v>0.04439521010729668</v>
+      </c>
+      <c r="I55">
+        <v>-0.03330753645341927</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.09267750679858761</v>
+        <v>0.06083829412935859</v>
       </c>
       <c r="C56">
-        <v>0.1677077399951223</v>
+        <v>-0.1818019131866278</v>
       </c>
       <c r="D56">
-        <v>-0.02684031894899723</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05042465394447729</v>
+      </c>
+      <c r="E56">
+        <v>-0.03692061498354465</v>
+      </c>
+      <c r="F56">
+        <v>0.06282456689134026</v>
+      </c>
+      <c r="G56">
+        <v>-0.01176418188287194</v>
+      </c>
+      <c r="H56">
+        <v>0.1211110112013662</v>
+      </c>
+      <c r="I56">
+        <v>-0.03206270890903459</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2344,373 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01891688158490724</v>
+        <v>0.01095791727004796</v>
       </c>
       <c r="C58">
-        <v>0.07721878371277047</v>
+        <v>-0.1209450499801827</v>
       </c>
       <c r="D58">
-        <v>-0.2257634664751639</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.1241902875439222</v>
+      </c>
+      <c r="E58">
+        <v>0.1722062438934187</v>
+      </c>
+      <c r="F58">
+        <v>-0.261298377285357</v>
+      </c>
+      <c r="G58">
+        <v>-0.06514648278910537</v>
+      </c>
+      <c r="H58">
+        <v>0.1234885240957412</v>
+      </c>
+      <c r="I58">
+        <v>0.03050791151506497</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.24253161130837</v>
+        <v>0.2701853177663429</v>
       </c>
       <c r="C59">
-        <v>-0.07981320310303565</v>
+        <v>0.0538895084575272</v>
       </c>
       <c r="D59">
-        <v>-0.04905509457614268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01950152539510777</v>
+      </c>
+      <c r="E59">
+        <v>0.02835044124756423</v>
+      </c>
+      <c r="F59">
+        <v>-0.03550716085390209</v>
+      </c>
+      <c r="G59">
+        <v>0.02077138438156529</v>
+      </c>
+      <c r="H59">
+        <v>0.0007084900112525051</v>
+      </c>
+      <c r="I59">
+        <v>0.02691674620569168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1483554724506652</v>
+        <v>0.1537741336532636</v>
       </c>
       <c r="C60">
-        <v>0.1190378266004207</v>
+        <v>-0.1524328555096764</v>
       </c>
       <c r="D60">
-        <v>-0.08648658619866177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.02334343765925687</v>
+      </c>
+      <c r="E60">
+        <v>0.08445095941275468</v>
+      </c>
+      <c r="F60">
+        <v>0.2251284352687435</v>
+      </c>
+      <c r="G60">
+        <v>0.1075190444828543</v>
+      </c>
+      <c r="H60">
+        <v>-0.1467760436136874</v>
+      </c>
+      <c r="I60">
+        <v>0.3055281880225946</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.01951058871387691</v>
+        <v>0.01842987944900751</v>
       </c>
       <c r="C61">
-        <v>0.06315810067323874</v>
+        <v>-0.09074599361799286</v>
       </c>
       <c r="D61">
-        <v>-0.07247784503797584</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.01256774230857167</v>
+      </c>
+      <c r="E61">
+        <v>0.07566177465425958</v>
+      </c>
+      <c r="F61">
+        <v>0.02328019896595706</v>
+      </c>
+      <c r="G61">
+        <v>-0.003958760475031949</v>
+      </c>
+      <c r="H61">
+        <v>-0.02944168303567476</v>
+      </c>
+      <c r="I61">
+        <v>-0.06155274069002637</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0006542659044169859</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.0009428608060064635</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.0007781267456392165</v>
+      </c>
+      <c r="E62">
+        <v>-0.0007560447793423082</v>
+      </c>
+      <c r="F62">
+        <v>-0.003120832345811152</v>
+      </c>
+      <c r="G62">
+        <v>-0.0001299797624477139</v>
+      </c>
+      <c r="H62">
+        <v>1.344604067568059e-05</v>
+      </c>
+      <c r="I62">
+        <v>-0.003983430318970095</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.003002057620999971</v>
+        <v>0.01804922991194674</v>
       </c>
       <c r="C63">
-        <v>0.04825121797341726</v>
+        <v>-0.06477075376124783</v>
       </c>
       <c r="D63">
-        <v>-0.06224411877461258</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.001306912686609038</v>
+      </c>
+      <c r="E63">
+        <v>0.0739099292583358</v>
+      </c>
+      <c r="F63">
+        <v>-0.0006600555672774953</v>
+      </c>
+      <c r="G63">
+        <v>0.005286983025880075</v>
+      </c>
+      <c r="H63">
+        <v>-0.03119967807847459</v>
+      </c>
+      <c r="I63">
+        <v>-0.08167497199825259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.02707488540778552</v>
+        <v>0.01711403422406329</v>
       </c>
       <c r="C64">
-        <v>0.1117905930950963</v>
+        <v>-0.1080048695088706</v>
       </c>
       <c r="D64">
-        <v>-0.02288346991058457</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01174574720634772</v>
+      </c>
+      <c r="E64">
+        <v>0.02757217516452271</v>
+      </c>
+      <c r="F64">
+        <v>-0.01586657528234658</v>
+      </c>
+      <c r="G64">
+        <v>-0.01634217143308369</v>
+      </c>
+      <c r="H64">
+        <v>-0.06124514600243808</v>
+      </c>
+      <c r="I64">
+        <v>0.02119132772375478</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02040605682805563</v>
+        <v>0.02474769919562483</v>
       </c>
       <c r="C65">
-        <v>0.03888268498061512</v>
+        <v>-0.06693722507237798</v>
       </c>
       <c r="D65">
-        <v>-0.08955845668014099</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.05403626308054532</v>
+      </c>
+      <c r="E65">
+        <v>0.09843203574576531</v>
+      </c>
+      <c r="F65">
+        <v>0.003929454134889326</v>
+      </c>
+      <c r="G65">
+        <v>-0.001500512101129816</v>
+      </c>
+      <c r="H65">
+        <v>-0.08302359220420395</v>
+      </c>
+      <c r="I65">
+        <v>0.03047829497435628</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.01889604970711203</v>
+        <v>0.01312877907837491</v>
       </c>
       <c r="C66">
-        <v>0.09558084742481054</v>
+        <v>-0.1320206888810586</v>
       </c>
       <c r="D66">
-        <v>-0.1451887389003092</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.05503497330768183</v>
+      </c>
+      <c r="E66">
+        <v>0.1077356769564577</v>
+      </c>
+      <c r="F66">
+        <v>-0.003416367255271317</v>
+      </c>
+      <c r="G66">
+        <v>-0.001527865318761514</v>
+      </c>
+      <c r="H66">
+        <v>-0.010559366492596</v>
+      </c>
+      <c r="I66">
+        <v>-0.05313731978083847</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.01795444408926928</v>
+        <v>0.01765561934090694</v>
       </c>
       <c r="C67">
-        <v>0.01779228398775701</v>
+        <v>-0.042541998906523</v>
       </c>
       <c r="D67">
-        <v>-0.03001936882228174</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.004375866768038274</v>
+      </c>
+      <c r="E67">
+        <v>0.0619175754594961</v>
+      </c>
+      <c r="F67">
+        <v>0.02912557753884571</v>
+      </c>
+      <c r="G67">
+        <v>-0.04055465756629739</v>
+      </c>
+      <c r="H67">
+        <v>-0.01092601253431639</v>
+      </c>
+      <c r="I67">
+        <v>-0.05072929288303903</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2382406903676417</v>
+        <v>0.2787564374607532</v>
       </c>
       <c r="C68">
-        <v>-0.09233642280422631</v>
+        <v>0.06604811951349727</v>
       </c>
       <c r="D68">
-        <v>-0.01816545160499024</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.037056900580369</v>
+      </c>
+      <c r="E68">
+        <v>0.01553600670075683</v>
+      </c>
+      <c r="F68">
+        <v>-0.05666341693651226</v>
+      </c>
+      <c r="G68">
+        <v>-0.01095046125284164</v>
+      </c>
+      <c r="H68">
+        <v>0.03781035434174028</v>
+      </c>
+      <c r="I68">
+        <v>0.02262117858793308</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.03814330633780236</v>
+        <v>0.01684385057680797</v>
       </c>
       <c r="C69">
-        <v>0.1171426366111133</v>
+        <v>-0.1002445974871054</v>
       </c>
       <c r="D69">
-        <v>-0.04527004426130637</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02607867459035478</v>
+      </c>
+      <c r="E69">
+        <v>0.022523165867267</v>
+      </c>
+      <c r="F69">
+        <v>0.01946199568829547</v>
+      </c>
+      <c r="G69">
+        <v>-0.008537823510415472</v>
+      </c>
+      <c r="H69">
+        <v>0.007759840854459201</v>
+      </c>
+      <c r="I69">
+        <v>-0.04869888923286252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.250027244102444</v>
+        <v>0.2668060670452309</v>
       </c>
       <c r="C71">
-        <v>-0.1129605098948793</v>
+        <v>0.08292708975702831</v>
       </c>
       <c r="D71">
-        <v>-0.01751803154480503</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01900851381184649</v>
+      </c>
+      <c r="E71">
+        <v>0.01972724466086546</v>
+      </c>
+      <c r="F71">
+        <v>-0.02987367717247652</v>
+      </c>
+      <c r="G71">
+        <v>-0.03048904446584143</v>
+      </c>
+      <c r="H71">
+        <v>-0.005519913516389662</v>
+      </c>
+      <c r="I71">
+        <v>-0.06252464014019463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.0756137447488103</v>
+        <v>0.06335239760026941</v>
       </c>
       <c r="C72">
-        <v>0.1184022252019632</v>
+        <v>-0.1344876910616608</v>
       </c>
       <c r="D72">
-        <v>-0.0987950502934333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01311364473885934</v>
+      </c>
+      <c r="E72">
+        <v>0.06001438663281921</v>
+      </c>
+      <c r="F72">
+        <v>0.04268232779717541</v>
+      </c>
+      <c r="G72">
+        <v>0.007789021840039619</v>
+      </c>
+      <c r="H72">
+        <v>-0.01734136444800637</v>
+      </c>
+      <c r="I72">
+        <v>0.04164780970600943</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1178671705648683</v>
+        <v>0.1469456567191796</v>
       </c>
       <c r="C73">
-        <v>0.1007267175657173</v>
+        <v>-0.1614809364066851</v>
       </c>
       <c r="D73">
-        <v>-0.1183381510791373</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.03329029558950583</v>
+      </c>
+      <c r="E73">
+        <v>0.1613027855880042</v>
+      </c>
+      <c r="F73">
+        <v>0.3272218474647981</v>
+      </c>
+      <c r="G73">
+        <v>0.1260582698642052</v>
+      </c>
+      <c r="H73">
+        <v>-0.272875825732907</v>
+      </c>
+      <c r="I73">
+        <v>0.2870575272396769</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.07417227225807672</v>
+        <v>0.05116216354837023</v>
       </c>
       <c r="C74">
-        <v>0.1332713707452356</v>
+        <v>-0.1327420241111105</v>
       </c>
       <c r="D74">
-        <v>0.04460670355508803</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.06292380379970293</v>
+      </c>
+      <c r="E74">
+        <v>-0.04478944796950739</v>
+      </c>
+      <c r="F74">
+        <v>0.01909074761540448</v>
+      </c>
+      <c r="G74">
+        <v>-0.01495024839777414</v>
+      </c>
+      <c r="H74">
+        <v>0.03224991440302391</v>
+      </c>
+      <c r="I74">
+        <v>-0.02391460125617171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1670588792026103</v>
+        <v>0.09675880365613797</v>
       </c>
       <c r="C75">
-        <v>0.2295164254835371</v>
+        <v>-0.234280302157276</v>
       </c>
       <c r="D75">
-        <v>0.0215730728676556</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1015358870603986</v>
+      </c>
+      <c r="E75">
+        <v>-0.1106735766884681</v>
+      </c>
+      <c r="F75">
+        <v>0.152709310507538</v>
+      </c>
+      <c r="G75">
+        <v>-0.1133142153668451</v>
+      </c>
+      <c r="H75">
+        <v>0.2259152056968794</v>
+      </c>
+      <c r="I75">
+        <v>-0.04960917029247658</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.0911012063695376</v>
+        <v>0.05738788058437688</v>
       </c>
       <c r="C76">
-        <v>0.1603341555631328</v>
+        <v>-0.1688833254999701</v>
       </c>
       <c r="D76">
-        <v>-0.01149105743833661</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0641087115928201</v>
+      </c>
+      <c r="E76">
+        <v>-0.02786155700825757</v>
+      </c>
+      <c r="F76">
+        <v>0.09581565813673615</v>
+      </c>
+      <c r="G76">
+        <v>-0.01001682432268493</v>
+      </c>
+      <c r="H76">
+        <v>0.0773556343554518</v>
+      </c>
+      <c r="I76">
+        <v>-0.04860639434868193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.04720838719550274</v>
+        <v>0.03228580208170338</v>
       </c>
       <c r="C77">
-        <v>0.0893430746778867</v>
+        <v>-0.1592461845328189</v>
       </c>
       <c r="D77">
-        <v>-0.2970913527766417</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.839694778159031</v>
+      </c>
+      <c r="E77">
+        <v>-0.4899835625102015</v>
+      </c>
+      <c r="F77">
+        <v>0.0645679411800658</v>
+      </c>
+      <c r="G77">
+        <v>-0.0274008062051945</v>
+      </c>
+      <c r="H77">
+        <v>-0.06560096412708763</v>
+      </c>
+      <c r="I77">
+        <v>-0.05630302791215692</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.0320624643328449</v>
+        <v>0.02793684669317967</v>
       </c>
       <c r="C78">
-        <v>0.09052014281564509</v>
+        <v>-0.1051830459000236</v>
       </c>
       <c r="D78">
-        <v>-0.1324079528037309</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0008877066881055889</v>
+      </c>
+      <c r="E78">
+        <v>0.1034097205081189</v>
+      </c>
+      <c r="F78">
+        <v>-0.05032008415055966</v>
+      </c>
+      <c r="G78">
+        <v>0.02203794619559838</v>
+      </c>
+      <c r="H78">
+        <v>0.06754109222212142</v>
+      </c>
+      <c r="I78">
+        <v>-0.1347614606678657</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09129653991120516</v>
+        <v>0.0581996106399357</v>
       </c>
       <c r="C79">
-        <v>0.4240162392344357</v>
+        <v>-0.3040349207939999</v>
       </c>
       <c r="D79">
-        <v>0.6181543669866297</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.306894119237679</v>
+      </c>
+      <c r="E79">
+        <v>-0.4504565775792341</v>
+      </c>
+      <c r="F79">
+        <v>-0.5409534120505561</v>
+      </c>
+      <c r="G79">
+        <v>0.04925599864041813</v>
+      </c>
+      <c r="H79">
+        <v>-0.458972375666102</v>
+      </c>
+      <c r="I79">
+        <v>0.1627808379527154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.001152963261289999</v>
+        <v>0.01015371837927711</v>
       </c>
       <c r="C80">
-        <v>0.05627682259486044</v>
+        <v>-0.05679436909120919</v>
       </c>
       <c r="D80">
-        <v>-0.04182673434608608</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.005564767163621119</v>
+      </c>
+      <c r="E80">
+        <v>0.06703528578036554</v>
+      </c>
+      <c r="F80">
+        <v>0.02066939459188114</v>
+      </c>
+      <c r="G80">
+        <v>0.06743006193995668</v>
+      </c>
+      <c r="H80">
+        <v>-0.01269235237071484</v>
+      </c>
+      <c r="I80">
+        <v>0.02903222082655006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.07297431797621552</v>
+        <v>0.03507459590644324</v>
       </c>
       <c r="C81">
-        <v>0.1519299810835908</v>
+        <v>-0.1485656139015742</v>
       </c>
       <c r="D81">
-        <v>0.04511219823774488</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0625961384640195</v>
+      </c>
+      <c r="E81">
+        <v>-0.06121343012343279</v>
+      </c>
+      <c r="F81">
+        <v>0.01322084256476858</v>
+      </c>
+      <c r="G81">
+        <v>-0.02098860740270724</v>
+      </c>
+      <c r="H81">
+        <v>0.06142587974269133</v>
+      </c>
+      <c r="I81">
+        <v>-0.07477627790996454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.1265523627286471</v>
+        <v>0.07266001197364141</v>
       </c>
       <c r="C82">
-        <v>0.211964958527655</v>
+        <v>-0.1932992200331168</v>
       </c>
       <c r="D82">
-        <v>0.02351265618966872</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.09320417335047901</v>
+      </c>
+      <c r="E82">
+        <v>-0.07030833499909103</v>
+      </c>
+      <c r="F82">
+        <v>0.08718535889916838</v>
+      </c>
+      <c r="G82">
+        <v>-0.01056292343872973</v>
+      </c>
+      <c r="H82">
+        <v>0.1059854062017545</v>
+      </c>
+      <c r="I82">
+        <v>-0.07161995112937861</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.001720852722412503</v>
+        <v>0.002359113891829943</v>
       </c>
       <c r="C83">
-        <v>0.05846364020270569</v>
+        <v>-0.02237122261750203</v>
       </c>
       <c r="D83">
-        <v>-0.05299776453755509</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04203654865657282</v>
+      </c>
+      <c r="E83">
+        <v>-0.03834562379305956</v>
+      </c>
+      <c r="F83">
+        <v>-0.1117890631479613</v>
+      </c>
+      <c r="G83">
+        <v>0.9145240424683174</v>
+      </c>
+      <c r="H83">
+        <v>0.2599736045289327</v>
+      </c>
+      <c r="I83">
+        <v>0.007548268238261793</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.001778380713141734</v>
+        <v>-0.002734195274411687</v>
       </c>
       <c r="C84">
-        <v>0.01482939356545589</v>
+        <v>-0.0306649582576555</v>
       </c>
       <c r="D84">
-        <v>-0.04063864473341493</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01014206078840174</v>
+      </c>
+      <c r="E84">
+        <v>0.05231140714856497</v>
+      </c>
+      <c r="F84">
+        <v>-0.05962938554658295</v>
+      </c>
+      <c r="G84">
+        <v>-0.05061162649226196</v>
+      </c>
+      <c r="H84">
+        <v>0.03722023002050206</v>
+      </c>
+      <c r="I84">
+        <v>-0.07798183130641742</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.08264421232775848</v>
+        <v>0.04803398099112263</v>
       </c>
       <c r="C85">
-        <v>0.1830602110338295</v>
+        <v>-0.1712755778884311</v>
       </c>
       <c r="D85">
-        <v>0.07317908632165084</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1132859828549625</v>
+      </c>
+      <c r="E85">
+        <v>-0.09446520822511817</v>
+      </c>
+      <c r="F85">
+        <v>0.02951475991170417</v>
+      </c>
+      <c r="G85">
+        <v>-0.0165169087557456</v>
+      </c>
+      <c r="H85">
+        <v>0.07217701975566339</v>
+      </c>
+      <c r="I85">
+        <v>-0.02971387447147357</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02510207045721823</v>
+        <v>0.01658196817935112</v>
       </c>
       <c r="C86">
-        <v>0.0305746585316985</v>
+        <v>-0.06164847144064051</v>
       </c>
       <c r="D86">
-        <v>-0.09195841738594175</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04716237132572974</v>
+      </c>
+      <c r="E86">
+        <v>0.04261646031761855</v>
+      </c>
+      <c r="F86">
+        <v>-0.07986942305863129</v>
+      </c>
+      <c r="G86">
+        <v>-0.03971194224528239</v>
+      </c>
+      <c r="H86">
+        <v>0.01625905647821612</v>
+      </c>
+      <c r="I86">
+        <v>-0.06123742201162891</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02769128013516785</v>
+        <v>0.0179919533596632</v>
       </c>
       <c r="C87">
-        <v>0.07391951132842343</v>
+        <v>-0.09700835134505388</v>
       </c>
       <c r="D87">
-        <v>-0.1422963053580549</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.06888018058552607</v>
+      </c>
+      <c r="E87">
+        <v>0.09996268133220602</v>
+      </c>
+      <c r="F87">
+        <v>-0.07241059843451145</v>
+      </c>
+      <c r="G87">
+        <v>-0.01678693123448187</v>
+      </c>
+      <c r="H87">
+        <v>0.04514809467411107</v>
+      </c>
+      <c r="I87">
+        <v>-0.0508696319104846</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03715222724299691</v>
+        <v>0.03756540093962899</v>
       </c>
       <c r="C88">
-        <v>0.07189730403642831</v>
+        <v>-0.08194970420356353</v>
       </c>
       <c r="D88">
-        <v>-0.0001747274242045839</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.00821685800879827</v>
+      </c>
+      <c r="E88">
+        <v>0.01660825025622831</v>
+      </c>
+      <c r="F88">
+        <v>0.02514699047285003</v>
+      </c>
+      <c r="G88">
+        <v>-0.004994432745182883</v>
+      </c>
+      <c r="H88">
+        <v>-0.01672434609240372</v>
+      </c>
+      <c r="I88">
+        <v>-0.01206974880687933</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.42049967623956</v>
+        <v>0.4077094303398907</v>
       </c>
       <c r="C89">
-        <v>-0.2036387587094348</v>
+        <v>0.1470611229722289</v>
       </c>
       <c r="D89">
-        <v>0.03678123217032564</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.001584997189736694</v>
+      </c>
+      <c r="E89">
+        <v>0.01264940453238265</v>
+      </c>
+      <c r="F89">
+        <v>-0.08344234250956134</v>
+      </c>
+      <c r="G89">
+        <v>0.08172606926471625</v>
+      </c>
+      <c r="H89">
+        <v>0.09753323785019247</v>
+      </c>
+      <c r="I89">
+        <v>-0.08796182935529544</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2987425216727298</v>
+        <v>0.3171669153713103</v>
       </c>
       <c r="C90">
-        <v>-0.1479214504504568</v>
+        <v>0.1003115138182971</v>
       </c>
       <c r="D90">
-        <v>-0.06141542539464227</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03291374685734446</v>
+      </c>
+      <c r="E90">
+        <v>0.04305042396343539</v>
+      </c>
+      <c r="F90">
+        <v>-0.0204195789693135</v>
+      </c>
+      <c r="G90">
+        <v>-0.01298790506466711</v>
+      </c>
+      <c r="H90">
+        <v>0.02444808023435077</v>
+      </c>
+      <c r="I90">
+        <v>0.01132824729773414</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1000889846252914</v>
+        <v>0.06755673970012094</v>
       </c>
       <c r="C91">
-        <v>0.2084805633693977</v>
+        <v>-0.1781684747657234</v>
       </c>
       <c r="D91">
-        <v>0.08016521153323919</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.07872406102679157</v>
+      </c>
+      <c r="E91">
+        <v>-0.1170050563172998</v>
+      </c>
+      <c r="F91">
+        <v>0.00893896511093022</v>
+      </c>
+      <c r="G91">
+        <v>0.02237685902714562</v>
+      </c>
+      <c r="H91">
+        <v>0.04398796848495991</v>
+      </c>
+      <c r="I91">
+        <v>-0.0179798858313391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.3212806754765192</v>
+        <v>0.3435374639224175</v>
       </c>
       <c r="C92">
-        <v>-0.1655575229543279</v>
+        <v>0.1313181516606632</v>
       </c>
       <c r="D92">
-        <v>0.02174297715802238</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.0327092955188697</v>
+      </c>
+      <c r="E92">
+        <v>-0.01831334751902946</v>
+      </c>
+      <c r="F92">
+        <v>-0.08084248688836276</v>
+      </c>
+      <c r="G92">
+        <v>-0.09477941255560811</v>
+      </c>
+      <c r="H92">
+        <v>-0.04063755375258566</v>
+      </c>
+      <c r="I92">
+        <v>-0.01619730196214209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.3116130635402357</v>
+        <v>0.320377506201289</v>
       </c>
       <c r="C93">
-        <v>-0.1602668748870463</v>
+        <v>0.1261305362312083</v>
       </c>
       <c r="D93">
-        <v>0.04750760204060572</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01773841225332138</v>
+      </c>
+      <c r="E93">
+        <v>-0.01927814645769739</v>
+      </c>
+      <c r="F93">
+        <v>-0.04115336821490907</v>
+      </c>
+      <c r="G93">
+        <v>-0.01617987012707644</v>
+      </c>
+      <c r="H93">
+        <v>-0.01359713221105088</v>
+      </c>
+      <c r="I93">
+        <v>-0.02926218828295906</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1736963153466607</v>
+        <v>0.1138847023871411</v>
       </c>
       <c r="C94">
-        <v>0.2625207888111503</v>
+        <v>-0.2559366877175523</v>
       </c>
       <c r="D94">
-        <v>0.07252805462234674</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.1585599191307075</v>
+      </c>
+      <c r="E94">
+        <v>-0.2078556001788049</v>
+      </c>
+      <c r="F94">
+        <v>0.1914679257043534</v>
+      </c>
+      <c r="G94">
+        <v>-0.0792937048256042</v>
+      </c>
+      <c r="H94">
+        <v>0.4420180794309891</v>
+      </c>
+      <c r="I94">
+        <v>0.005817748448187156</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.04060034265622369</v>
+        <v>0.03880489638350606</v>
       </c>
       <c r="C95">
-        <v>0.04410106996461593</v>
+        <v>-0.09402951248585625</v>
       </c>
       <c r="D95">
-        <v>-0.06161089837285095</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.04564022238561457</v>
+      </c>
+      <c r="E95">
+        <v>0.07544862609359075</v>
+      </c>
+      <c r="F95">
+        <v>0.10552200772755</v>
+      </c>
+      <c r="G95">
+        <v>-0.0341424897824338</v>
+      </c>
+      <c r="H95">
+        <v>-0.0466352019629245</v>
+      </c>
+      <c r="I95">
+        <v>-0.0823855138218413</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.004081709171013172</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.001136340314413789</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01828886737377601</v>
+      </c>
+      <c r="E97">
+        <v>-0.0007684663445724683</v>
+      </c>
+      <c r="F97">
+        <v>0.002186708979604316</v>
+      </c>
+      <c r="G97">
+        <v>-0.01990419989117043</v>
+      </c>
+      <c r="H97">
+        <v>-0.007844424356331307</v>
+      </c>
+      <c r="I97">
+        <v>-0.007664359727065059</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1054014530698193</v>
+        <v>0.1309993182414852</v>
       </c>
       <c r="C98">
-        <v>0.09322750156455722</v>
+        <v>-0.140834492757521</v>
       </c>
       <c r="D98">
-        <v>-0.1176442983523763</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01414267053666728</v>
+      </c>
+      <c r="E98">
+        <v>0.1399121126121484</v>
+      </c>
+      <c r="F98">
+        <v>0.250392946792612</v>
+      </c>
+      <c r="G98">
+        <v>0.08214296875585923</v>
+      </c>
+      <c r="H98">
+        <v>-0.2366845932946609</v>
+      </c>
+      <c r="I98">
+        <v>0.3398161936532256</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.004018297143081166</v>
+        <v>0.005633205206433274</v>
       </c>
       <c r="C101">
-        <v>0.02673213107354772</v>
+        <v>-0.05521282537239363</v>
       </c>
       <c r="D101">
-        <v>-0.06803814476247562</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02976608902889244</v>
+      </c>
+      <c r="E101">
+        <v>0.1098021246318402</v>
+      </c>
+      <c r="F101">
+        <v>-0.02057290977855361</v>
+      </c>
+      <c r="G101">
+        <v>0.04705153818774904</v>
+      </c>
+      <c r="H101">
+        <v>-0.113537888521818</v>
+      </c>
+      <c r="I101">
+        <v>-0.1764126645021711</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.06062054485521828</v>
+        <v>0.02283944055282866</v>
       </c>
       <c r="C102">
-        <v>0.1224958405696761</v>
+        <v>-0.08476623169114365</v>
       </c>
       <c r="D102">
-        <v>-0.00372898196368491</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04186310703706017</v>
+      </c>
+      <c r="E102">
+        <v>-0.04936683262955179</v>
+      </c>
+      <c r="F102">
+        <v>0.0354625269276079</v>
+      </c>
+      <c r="G102">
+        <v>0.01080147810072843</v>
+      </c>
+      <c r="H102">
+        <v>0.06780084675135013</v>
+      </c>
+      <c r="I102">
+        <v>-0.01814464752010219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
